--- a/Free-Trading-Journal.xlsx
+++ b/Free-Trading-Journal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpoos\Documents\Trading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpoos\Documents\Faezeh-Git\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BF9B52-BF9E-4592-9C32-8B7016881FCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA7F11E-E5A8-4293-9440-7C1E4CB2D8F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="2010" windowWidth="36765" windowHeight="18150" activeTab="10" xr2:uid="{D2CBD4D8-6297-4CE9-BDAA-03F82108C524}"/>
+    <workbookView xWindow="4065" yWindow="4740" windowWidth="32475" windowHeight="15435" activeTab="9" xr2:uid="{D2CBD4D8-6297-4CE9-BDAA-03F82108C524}"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="28" r:id="rId1"/>
@@ -23,12 +23,11 @@
     <sheet name="Best-Instrument" sheetId="30" r:id="rId8"/>
     <sheet name="Feeling" sheetId="21" r:id="rId9"/>
     <sheet name="Montly-Growth" sheetId="19" r:id="rId10"/>
-    <sheet name="Security" sheetId="32" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId12"/>
-    <pivotCache cacheId="1" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="105">
   <si>
     <t>Results</t>
   </si>
@@ -581,51 +580,6 @@
   <si>
     <t>NZDJPY</t>
   </si>
-  <si>
-    <t>Correction 50%</t>
-  </si>
-  <si>
-    <t>Buy me</t>
-  </si>
-  <si>
-    <t>No news</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Moving-Average</t>
-  </si>
-  <si>
-    <t>No hammer</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>RIOT</t>
-  </si>
-  <si>
-    <t>US500</t>
-  </si>
-  <si>
-    <t>ATO</t>
-  </si>
-  <si>
-    <t>PTON</t>
-  </si>
-  <si>
-    <t>SPCE</t>
-  </si>
-  <si>
-    <t>ILMN</t>
-  </si>
-  <si>
-    <t>TIGR</t>
-  </si>
-  <si>
-    <t>Az  March</t>
-  </si>
 </sst>
 </file>
 
@@ -636,7 +590,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="mmm"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,23 +642,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Wingdings 2"/>
-      <family val="1"/>
-      <charset val="2"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -771,12 +710,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -832,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -956,21 +889,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2279,7 +2197,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Journal-2021.xlsx]Best-Strategy!PivotTable6</c:name>
+    <c:name>[Free-Trading-Journal.xlsx]Best-Strategy!PivotTable6</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -2774,7 +2692,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Journal-2021.xlsx]Best-Entry!PivotTable1</c:name>
+    <c:name>[Free-Trading-Journal.xlsx]Best-Entry!PivotTable1</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -3174,7 +3092,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Journal-2021.xlsx]Best-Instrument!PivotTable2</c:name>
+    <c:name>[Free-Trading-Journal.xlsx]Best-Instrument!PivotTable2</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -3503,7 +3421,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Journal-2021.xlsx]Feeling!PivotTable2</c:name>
+    <c:name>[Free-Trading-Journal.xlsx]Feeling!PivotTable2</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -3839,7 +3757,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Journal-2021.xlsx]Montly-Growth!PivotTable1</c:name>
+    <c:name>[Free-Trading-Journal.xlsx]Montly-Growth!PivotTable1</c:name>
     <c:fmtId val="15"/>
   </c:pivotSource>
   <c:chart>
@@ -11374,7 +11292,7 @@
   </sheetPr>
   <dimension ref="A3:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
@@ -11429,331 +11347,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7BC008-564A-4FE1-8403-41A66F80EF7E}">
-  <sheetPr>
-    <tabColor rgb="FFA1C6E7"/>
-  </sheetPr>
-  <dimension ref="A1:M12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="25"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="M2" s="50" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="I6" s="49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="27" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="27" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="I9" s="49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="27" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="I10" s="49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="27" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="I12" s="49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
